--- a/va_facility_data_2025-02-20/Golden VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Golden%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Golden VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Golden%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Reed549ee115046779c29c1fccc91b1c6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R332a94810b074ef0ad9a95057515006c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R44d9273df9bb4bb492ee604a3d32c64f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd2680571d9bc48ef9a30b65ba1946125"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R41acd5eea370459c8277494f4b8606a8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2a3d28eafcb748919e38b9c01e01e338"/>
   </x:sheets>
 </x:workbook>
 </file>
